--- a/data/trans_orig/P1802_2016_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1802_2016_2023-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>181480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>157167</v>
+        <v>158133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>208115</v>
+        <v>209674</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1608867268987609</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1393328832199251</v>
+        <v>0.1401894612531255</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1844998113195013</v>
+        <v>0.1858817675786887</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>243</v>
@@ -763,19 +763,19 @@
         <v>261886</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>232873</v>
+        <v>233946</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>289452</v>
+        <v>292716</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2079182151764404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1848844265193651</v>
+        <v>0.1857357973290717</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2298040975285852</v>
+        <v>0.2323953572871483</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>416</v>
@@ -784,19 +784,19 @@
         <v>443365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>404498</v>
+        <v>401350</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>483402</v>
+        <v>481852</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1856982781086741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1694192949648342</v>
+        <v>0.1681006751103874</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2024671252540761</v>
+        <v>0.2018177771889899</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>946517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>919882</v>
+        <v>918323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>970830</v>
+        <v>969864</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8391132731012392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8155001886804987</v>
+        <v>0.8141182324213111</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8606671167800749</v>
+        <v>0.8598105387468745</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>945</v>
@@ -834,19 +834,19 @@
         <v>997675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>970109</v>
+        <v>966845</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1026688</v>
+        <v>1025615</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7920817848235596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7701959024714148</v>
+        <v>0.7676046427128526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8151155734806351</v>
+        <v>0.8142642026709286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1838</v>
@@ -855,19 +855,19 @@
         <v>1944193</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1904156</v>
+        <v>1905706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1983060</v>
+        <v>1986208</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8143017218913259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7975328747459238</v>
+        <v>0.7981822228110101</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8305807050351659</v>
+        <v>0.8318993248896126</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>126909</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>107482</v>
+        <v>106795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150893</v>
+        <v>148569</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1396410756244907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1182648413932786</v>
+        <v>0.1175092473068561</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1660303555616907</v>
+        <v>0.1634733597432571</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>192</v>
@@ -980,19 +980,19 @@
         <v>211985</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>184759</v>
+        <v>184270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>236880</v>
+        <v>238537</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2106210044932929</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1835700086889942</v>
+        <v>0.1830841227580258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2353560754219451</v>
+        <v>0.2370024249638742</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -1001,19 +1001,19 @@
         <v>338894</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>309167</v>
+        <v>301580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>376802</v>
+        <v>373476</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1769404763171732</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1614197025402618</v>
+        <v>0.1574581096712687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1967325788951584</v>
+        <v>0.1949959615698791</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>781916</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>757932</v>
+        <v>760256</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>801343</v>
+        <v>802030</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8603589243755092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8339696444383095</v>
+        <v>0.8365266402567424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8817351586067217</v>
+        <v>0.8824907526931436</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>759</v>
@@ -1051,19 +1051,19 @@
         <v>794490</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>769595</v>
+        <v>767938</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>821716</v>
+        <v>822205</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7893789955067071</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7646439245780549</v>
+        <v>0.7629975750361258</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8164299913110059</v>
+        <v>0.8169158772419741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1519</v>
@@ -1072,19 +1072,19 @@
         <v>1576406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1538498</v>
+        <v>1541824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1606133</v>
+        <v>1613720</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8230595236828269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8032674211048413</v>
+        <v>0.8050040384301209</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8385802974597379</v>
+        <v>0.8425418903287313</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>99168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81126</v>
+        <v>82215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119711</v>
+        <v>123319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1203842434006279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09848278065378142</v>
+        <v>0.09980459474243383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1453233606899818</v>
+        <v>0.1497031471687146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -1197,19 +1197,19 @@
         <v>127923</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>108587</v>
+        <v>109854</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150823</v>
+        <v>148390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1659053532392764</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.140828203716526</v>
+        <v>0.1424716232985098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1956049858381403</v>
+        <v>0.1924495399199739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>213</v>
@@ -1218,19 +1218,19 @@
         <v>227090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198709</v>
+        <v>199924</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>258499</v>
+        <v>257003</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1423926781192962</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1245968966681607</v>
+        <v>0.1253584747384675</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1620865218433406</v>
+        <v>0.161149032704762</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>724591</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>704048</v>
+        <v>700440</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>742633</v>
+        <v>741544</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8796157565993722</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8546766393100178</v>
+        <v>0.8502968528312852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9015172193462184</v>
+        <v>0.9001954052575661</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>608</v>
@@ -1268,19 +1268,19 @@
         <v>643136</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>620236</v>
+        <v>622669</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>662472</v>
+        <v>661205</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8340946467607235</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8043950141618601</v>
+        <v>0.8075504600800262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8591717962834743</v>
+        <v>0.8575283767014903</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1302</v>
@@ -1289,19 +1289,19 @@
         <v>1367728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1336319</v>
+        <v>1337815</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1396109</v>
+        <v>1394894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8576073218807038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8379134781566593</v>
+        <v>0.8388509672952382</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8754031033318391</v>
+        <v>0.8746415252615326</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>73193</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56587</v>
+        <v>58240</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90953</v>
+        <v>90002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1444504821709109</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.111677349185109</v>
+        <v>0.1149388594547598</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1795000450632516</v>
+        <v>0.177623808053514</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -1414,19 +1414,19 @@
         <v>62396</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48711</v>
+        <v>48910</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77369</v>
+        <v>78443</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1274172174786173</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09947060140918412</v>
+        <v>0.0998769888930503</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1579927748335052</v>
+        <v>0.1601869517071818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -1435,19 +1435,19 @@
         <v>135589</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113002</v>
+        <v>114646</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158916</v>
+        <v>158503</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1360791845300195</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1134106846910686</v>
+        <v>0.1150608512648326</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1594904084785029</v>
+        <v>0.1590758015520119</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>433508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>415748</v>
+        <v>416699</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>450114</v>
+        <v>448461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8555495178290892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8204999549367487</v>
+        <v>0.8223761919464855</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8883226508148911</v>
+        <v>0.88506114054524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>397</v>
@@ -1485,19 +1485,19 @@
         <v>427302</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>412329</v>
+        <v>411255</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>440987</v>
+        <v>440788</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8725827825213828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8420072251664945</v>
+        <v>0.8398130482928182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9005293985908158</v>
+        <v>0.9001230111069497</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>802</v>
@@ -1506,19 +1506,19 @@
         <v>860809</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>837482</v>
+        <v>837895</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>883396</v>
+        <v>881752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8639208154699805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.840509591521497</v>
+        <v>0.840924198447988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8865893153089314</v>
+        <v>0.8849391487351672</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>480750</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>436419</v>
+        <v>438924</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>521949</v>
+        <v>520152</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1427708903983281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1296055806725828</v>
+        <v>0.1303497164380346</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1550061099782577</v>
+        <v>0.1544723291784669</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>613</v>
@@ -1631,19 +1631,19 @@
         <v>664189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>615690</v>
+        <v>617354</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>709849</v>
+        <v>711449</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1883266916635759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1745750527638882</v>
+        <v>0.1750469823948836</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.201273254310627</v>
+        <v>0.2017268510243097</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1066</v>
@@ -1652,19 +1652,19 @@
         <v>1144939</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1079051</v>
+        <v>1086110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1211198</v>
+        <v>1214262</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1660758095975933</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1565185976946356</v>
+        <v>0.1575425307376939</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1756867345965688</v>
+        <v>0.1761312996375655</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2886532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2845333</v>
+        <v>2847130</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2930863</v>
+        <v>2928358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8572291096016719</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8449938900217422</v>
+        <v>0.845527670821533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8703944193274171</v>
+        <v>0.8696502835619653</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2709</v>
@@ -1702,19 +1702,19 @@
         <v>2862603</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2816943</v>
+        <v>2815343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2911102</v>
+        <v>2909438</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8116733083364241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7987267456893732</v>
+        <v>0.7982731489756903</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8254249472361118</v>
+        <v>0.8249530176051165</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5461</v>
@@ -1723,19 +1723,19 @@
         <v>5749136</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5682877</v>
+        <v>5679813</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5815024</v>
+        <v>5807965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8339241904024067</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8243132654034311</v>
+        <v>0.8238687003624345</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8434814023053645</v>
+        <v>0.842457469262306</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>96499</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78055</v>
+        <v>78472</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115610</v>
+        <v>114469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1937962057066314</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1567545904981575</v>
+        <v>0.1575924334666278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2321746991615909</v>
+        <v>0.2298833981814846</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>178</v>
@@ -2088,19 +2088,19 @@
         <v>115399</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99425</v>
+        <v>100961</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132631</v>
+        <v>133116</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1850590271321579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.159442775592471</v>
+        <v>0.1619058361786745</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2126927261946389</v>
+        <v>0.2134702765437581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>272</v>
@@ -2109,19 +2109,19 @@
         <v>211899</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>189561</v>
+        <v>188522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>236911</v>
+        <v>238897</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1889382290725954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1690207282858705</v>
+        <v>0.168094600325642</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2112404218098199</v>
+        <v>0.213011359807306</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>401444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382333</v>
+        <v>383474</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419888</v>
+        <v>419471</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8062037942933687</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7678253008384099</v>
+        <v>0.7701166018185152</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8432454095018436</v>
+        <v>0.8424075665333719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>683</v>
@@ -2159,19 +2159,19 @@
         <v>508181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>490949</v>
+        <v>490464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>524155</v>
+        <v>522619</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8149409728678421</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7873072738053608</v>
+        <v>0.7865297234562417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8405572244075291</v>
+        <v>0.8380941638213254</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1043</v>
@@ -2180,19 +2180,19 @@
         <v>909624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>884612</v>
+        <v>882626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>931962</v>
+        <v>933001</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8110617709274045</v>
+        <v>0.8110617709274044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7887595781901801</v>
+        <v>0.7869886401926945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8309792717141296</v>
+        <v>0.8319053996743583</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>114861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96476</v>
+        <v>96033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>137784</v>
+        <v>136858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1196293057558101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1004816232990448</v>
+        <v>0.1000196606103079</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1435042887043763</v>
+        <v>0.1425399567794774</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>315</v>
@@ -2305,19 +2305,19 @@
         <v>197785</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>177673</v>
+        <v>177982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>219831</v>
+        <v>219664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.17746595407133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1594208524177679</v>
+        <v>0.1596974919462774</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1972474778295104</v>
+        <v>0.1970981100303744</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>444</v>
@@ -2326,19 +2326,19 @@
         <v>312645</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283889</v>
+        <v>284808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>342674</v>
+        <v>342562</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1506992037912723</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1368385603893464</v>
+        <v>0.1372813794995785</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1651736413069156</v>
+        <v>0.1651195891708589</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>845276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>822353</v>
+        <v>823279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>863661</v>
+        <v>864104</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8803706942441899</v>
+        <v>0.88037069424419</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8564957112956233</v>
+        <v>0.857460043220523</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8995183767009548</v>
+        <v>0.8999803393896921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1290</v>
@@ -2376,19 +2376,19 @@
         <v>916708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>894662</v>
+        <v>894829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>936820</v>
+        <v>936511</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8225340459286699</v>
+        <v>0.82253404592867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8027525221704895</v>
+        <v>0.8029018899696257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8405791475822322</v>
+        <v>0.8403025080537224</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2071</v>
@@ -2397,19 +2397,19 @@
         <v>1761984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1731955</v>
+        <v>1732067</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1790740</v>
+        <v>1789821</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8493007962087276</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8348263586930844</v>
+        <v>0.8348804108291413</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8631614396106536</v>
+        <v>0.8627186205004218</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>140105</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119580</v>
+        <v>121095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>170114</v>
+        <v>163537</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1338827538781984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1142693068552292</v>
+        <v>0.1157169669612968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1625583396153564</v>
+        <v>0.1562735751127382</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>313</v>
@@ -2522,19 +2522,19 @@
         <v>199937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>176775</v>
+        <v>178965</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>222799</v>
+        <v>221602</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.190968952956644</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1688458134295179</v>
+        <v>0.1709383408073004</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2128060751688638</v>
+        <v>0.2116620846706733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>462</v>
@@ -2543,19 +2543,19 @@
         <v>340042</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>307610</v>
+        <v>310767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>372883</v>
+        <v>370915</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1624323886700647</v>
+        <v>0.1624323886700646</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1469402171453157</v>
+        <v>0.1484480449937817</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1781197132042862</v>
+        <v>0.1771796028357982</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>906374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>876365</v>
+        <v>882942</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>926899</v>
+        <v>925384</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8661172461218016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8374416603846436</v>
+        <v>0.8437264248872619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8857306931447708</v>
+        <v>0.8842830330387031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1202</v>
@@ -2593,19 +2593,19 @@
         <v>847022</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>824160</v>
+        <v>825357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>870184</v>
+        <v>867994</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.809031047043356</v>
+        <v>0.8090310470433562</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7871939248311364</v>
+        <v>0.7883379153293266</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8311541865704822</v>
+        <v>0.8290616591926996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2082</v>
@@ -2614,19 +2614,19 @@
         <v>1753396</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1720555</v>
+        <v>1722523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1785828</v>
+        <v>1782671</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8375676113299352</v>
+        <v>0.8375676113299353</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8218802867957139</v>
+        <v>0.8228203971642019</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8530597828546843</v>
+        <v>0.8515519550062183</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>180470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154837</v>
+        <v>155364</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206778</v>
+        <v>208317</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1850872039195805</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1587980437115658</v>
+        <v>0.1593383947760664</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2120684989354366</v>
+        <v>0.2136460467109007</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>265</v>
@@ -2739,19 +2739,19 @@
         <v>179602</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>159746</v>
+        <v>158802</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201735</v>
+        <v>204903</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1976599048497074</v>
+        <v>0.1976599048497073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1758076698865048</v>
+        <v>0.174768346077912</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2220181489117184</v>
+        <v>0.2255051428782364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>453</v>
@@ -2760,19 +2760,19 @@
         <v>360072</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>328020</v>
+        <v>331827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>392839</v>
+        <v>392546</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1911519185524019</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1741363779429558</v>
+        <v>0.1761573643740676</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2085466237911296</v>
+        <v>0.2083913008150721</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>794585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>768277</v>
+        <v>766738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>820218</v>
+        <v>819691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8149127960804196</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7879315010645634</v>
+        <v>0.7863539532890992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8412019562884343</v>
+        <v>0.8406616052239333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1056</v>
@@ -2810,19 +2810,19 @@
         <v>729040</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>706907</v>
+        <v>703739</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>748896</v>
+        <v>749840</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8023400951502928</v>
+        <v>0.8023400951502926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7779818510882818</v>
+        <v>0.7744948571217637</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8241923301134951</v>
+        <v>0.8252316539220879</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1814</v>
@@ -2831,19 +2831,19 @@
         <v>1523625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1490858</v>
+        <v>1491151</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1555677</v>
+        <v>1551870</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8088480814475981</v>
+        <v>0.808848081447598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7914533762088702</v>
+        <v>0.7916086991849277</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8258636220570441</v>
+        <v>0.8238426356259324</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>531936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>490590</v>
+        <v>488586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>580076</v>
+        <v>577270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1528720342655132</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1409896815476797</v>
+        <v>0.1404139017875249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1667068731155231</v>
+        <v>0.1659005956278624</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1071</v>
@@ -2956,19 +2956,19 @@
         <v>692722</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>650805</v>
+        <v>656471</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>738750</v>
+        <v>737969</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1875429254050041</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1761945580148126</v>
+        <v>0.1777283719191509</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2000039870121729</v>
+        <v>0.199792635792871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1631</v>
@@ -2977,19 +2977,19 @@
         <v>1224658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1162876</v>
+        <v>1162544</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1283931</v>
+        <v>1284502</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1707247917741573</v>
+        <v>0.1707247917741574</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.162112026295516</v>
+        <v>0.1620657876532598</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1789877711667501</v>
+        <v>0.1790674830972873</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2947678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2899538</v>
+        <v>2902344</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2989024</v>
+        <v>2991028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8471279657344868</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8332931268844762</v>
+        <v>0.8340994043721375</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8590103184523201</v>
+        <v>0.8595860982124748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4231</v>
@@ -3027,19 +3027,19 @@
         <v>3000952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2954924</v>
+        <v>2955705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3042869</v>
+        <v>3037203</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8124570745949959</v>
+        <v>0.8124570745949958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7999960129878272</v>
+        <v>0.8002073642071287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8238054419851876</v>
+        <v>0.822271628080849</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7010</v>
@@ -3048,19 +3048,19 @@
         <v>5948629</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5889356</v>
+        <v>5888785</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6010411</v>
+        <v>6010743</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8292752082258424</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8210122288332499</v>
+        <v>0.8209325169027126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.837887973704484</v>
+        <v>0.8379342123467401</v>
       </c>
     </row>
     <row r="18">
